--- a/ArticleManage/main_working_folder/output_folders/Data 95 Micro Mesoporous Activated Carbon/Data95_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 95 Micro Mesoporous Activated Carbon/Data95_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="AC-1h" sheetId="1" r:id="rId1"/>
-    <sheet name="AC-2h" sheetId="2" r:id="rId4"/>
-    <sheet name="AC-3h" sheetId="3" r:id="rId5"/>
-    <sheet name="AC-4h" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_1 AC-1h  0-1-0-800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 AC-2h  0-1-0-800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_1 AC-3h  0-1-0-800 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_1 AC-4h  0-1-0-800 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-1h</a:t>
+              <a:t>Izoterma adsorpcji probki AC-1h z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-1h'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 AC-1h  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-1h'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 AC-1h  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -186,6 +186,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -255,6 +257,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -419,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-2h</a:t>
+              <a:t>Izoterma adsorpcji probki AC-2h z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-2h'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 AC-2h  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-2h'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 AC-2h  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -496,6 +500,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -565,6 +571,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -729,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-3h</a:t>
+              <a:t>Izoterma adsorpcji probki AC-3h z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -788,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-3h'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 AC-3h  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-3h'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 AC-3h  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -806,6 +814,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -875,6 +885,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1039,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-4h</a:t>
+              <a:t>Izoterma adsorpcji probki AC-4h z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1098,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-4h'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 AC-4h  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-4h'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 AC-4h  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1116,6 +1128,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1185,6 +1199,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 95 Micro Mesoporous Activated Carbon/Data95_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 95 Micro Mesoporous Activated Carbon/Data95_all_graphs_excel.xlsx
@@ -4013,7 +4013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4034,381 +4034,205 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.0204</v>
       </c>
       <c r="B3" s="0">
-        <v>324.8892</v>
+        <v>296.3447</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.0296</v>
       </c>
       <c r="B4" s="0">
-        <v>347.7306</v>
+        <v>315.3295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="B5" s="0">
-        <v>362.8857</v>
+        <v>327.206</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.0504</v>
       </c>
       <c r="B6" s="0">
-        <v>377.0188</v>
+        <v>342.6381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.0597</v>
       </c>
       <c r="B7" s="0">
-        <v>389.7102</v>
+        <v>348.5859</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.0793</v>
       </c>
       <c r="B8" s="0">
-        <v>400.8067</v>
+        <v>364.0399</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.1001</v>
       </c>
       <c r="B9" s="0">
-        <v>410.5344</v>
+        <v>379.4966</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.151</v>
       </c>
       <c r="B10" s="0">
-        <v>420.8424</v>
+        <v>404.5062</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.1996</v>
       </c>
       <c r="B11" s="0">
-        <v>429.8183</v>
+        <v>428.325</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.2505</v>
       </c>
       <c r="B12" s="0">
-        <v>438.5648</v>
+        <v>450.9642</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.2991</v>
       </c>
       <c r="B13" s="0">
-        <v>447.7887</v>
+        <v>468.8571</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.3523</v>
       </c>
       <c r="B14" s="0">
-        <v>455.4736</v>
+        <v>486.761</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.4021</v>
       </c>
       <c r="B15" s="0">
-        <v>463.1071</v>
+        <v>502.2863</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.4518</v>
       </c>
       <c r="B16" s="0">
-        <v>471.2142</v>
+        <v>518.9968</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.5015</v>
       </c>
       <c r="B17" s="0">
-        <v>479.6162</v>
+        <v>533.337</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.5501</v>
       </c>
       <c r="B18" s="0">
-        <v>487.5112</v>
+        <v>546.4892</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.5999</v>
       </c>
       <c r="B19" s="0">
-        <v>493.5721</v>
+        <v>559.6442</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.6496</v>
       </c>
       <c r="B20" s="0">
-        <v>499.4274</v>
+        <v>571.614</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.6982</v>
       </c>
       <c r="B21" s="0">
-        <v>505.6421</v>
+        <v>584.7662</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.7503</v>
       </c>
       <c r="B22" s="0">
-        <v>510.8805</v>
+        <v>597.9266</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.8012</v>
       </c>
       <c r="B23" s="0">
-        <v>515.9915</v>
+        <v>612.2695</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.8498</v>
       </c>
       <c r="B24" s="0">
-        <v>520.7322</v>
+        <v>626.6069</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.8984</v>
       </c>
       <c r="B25" s="0">
-        <v>526.415</v>
+        <v>638.5739</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5</v>
+        <v>0.947</v>
       </c>
       <c r="B26" s="0">
-        <v>532.5166</v>
+        <v>649.3558</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.52</v>
+        <v>0.9794</v>
       </c>
       <c r="B27" s="0">
-        <v>537.9444</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B28" s="0">
-        <v>543.678</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B29" s="0">
-        <v>548.4865</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B30" s="0">
-        <v>553.9889</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B31" s="0">
-        <v>559.3105</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B32" s="0">
-        <v>564.4706</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B33" s="0">
-        <v>570.3162</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B34" s="0">
-        <v>574.8352</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B35" s="0">
-        <v>579.5994</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B36" s="0">
-        <v>584.4101</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B37" s="0">
-        <v>589.7359</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B38" s="0">
-        <v>596.0025</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B39" s="0">
-        <v>600.3362</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>605.7511</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>611.2299</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>616.6504</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B43" s="0">
-        <v>622.8272</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B44" s="0">
-        <v>627.3301</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>632.1108</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B46" s="0">
-        <v>637.2189</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>642.1056</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>648.0058</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B49" s="0">
-        <v>653.1044</v>
-      </c>
-    </row>
-    <row r="50"/>
+        <v>656.5437</v>
+      </c>
+    </row>
+    <row r="28"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5022,58 +4846,58 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1028</v>
+        <v>0.097</v>
       </c>
       <c r="B21" s="0">
-        <v>164.9843</v>
+        <v>166.1558</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0866</v>
+        <v>0.0796</v>
       </c>
       <c r="B22" s="0">
-        <v>162.5756</v>
+        <v>162.5591</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0646</v>
+        <v>0.0657</v>
       </c>
       <c r="B23" s="0">
-        <v>156.5975</v>
+        <v>157.7855</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0426</v>
+        <v>0.0484</v>
       </c>
       <c r="B24" s="0">
-        <v>148.2491</v>
+        <v>154.1888</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0299</v>
+        <v>0.0334</v>
       </c>
       <c r="B25" s="0">
-        <v>141.1079</v>
+        <v>148.2272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0137</v>
+        <v>0.0229</v>
       </c>
       <c r="B26" s="0">
-        <v>132.7732</v>
+        <v>139.9062</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0102</v>
+        <v>0.0149</v>
       </c>
       <c r="B27" s="0">
-        <v>122.0983</v>
+        <v>132.776</v>
       </c>
     </row>
     <row r="28"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 95 Micro Mesoporous Activated Carbon/Data95_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 95 Micro Mesoporous Activated Carbon/Data95_all_graphs_excel.xlsx
@@ -5,25 +5,37 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2_1 AC-1h  0-1-0-800 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2_1 AC-2h  0-1-0-800 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2_1 AC-3h  0-1-0-800 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2_1 AC-4h  0-1-0-800 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 AC-1-1  0&amp;1&amp;0&amp;700 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 AC-1-2  0&amp;1&amp;0&amp;700 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 AC-4-1  0&amp;1&amp;0&amp;700 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_1 AC-1h  0&amp;1&amp;0&amp;800 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_1 AC-2h  0&amp;1&amp;0&amp;800 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_1 AC-3h  0&amp;1&amp;0&amp;800 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_1 AC-4h  0&amp;1&amp;0&amp;800 " sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>AC-1h</t>
+    <t>AC-1-1</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>AC-1-2</t>
+  </si>
+  <si>
+    <t>AC-4-1</t>
+  </si>
+  <si>
+    <t>AC-1h</t>
   </si>
   <si>
     <t>AC-2h</t>
@@ -77,6 +89,948 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC-1-1 z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 AC-1-1  0&amp;1&amp;0&amp;700 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 AC-1-1  0&amp;1&amp;0&amp;700 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC-1-2 z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 AC-1-2  0&amp;1&amp;0&amp;700 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 AC-1-2  0&amp;1&amp;0&amp;700 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC-4-1 z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 AC-4-1  0&amp;1&amp;0&amp;700 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 AC-4-1  0&amp;1&amp;0&amp;700 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -168,12 +1122,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 AC-1h  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 AC-1h  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 AC-1h  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 AC-1h  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -390,7 +1344,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -482,12 +1436,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 AC-2h  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 AC-2h  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 AC-2h  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 AC-2h  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -704,7 +1658,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -796,12 +1750,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 AC-3h  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 AC-3h  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 AC-3h  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 AC-3h  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1018,7 +1972,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1110,12 +2064,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 AC-4h  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 AC-4h  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 AC-4h  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 AC-4h  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1492,6 +2446,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -3056,6 +4130,1569 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3699,6 +6336,111 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4013,7 +6755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4034,205 +6776,213 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0204</v>
+        <v>0.0047</v>
       </c>
       <c r="B3" s="0">
-        <v>296.3447</v>
+        <v>134.2277</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0296</v>
+        <v>0.0199</v>
       </c>
       <c r="B4" s="0">
-        <v>315.3295</v>
+        <v>297.297</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.04</v>
+        <v>0.0304</v>
       </c>
       <c r="B5" s="0">
-        <v>327.206</v>
+        <v>315.5414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0504</v>
+        <v>0.0397</v>
       </c>
       <c r="B6" s="0">
-        <v>342.6381</v>
+        <v>329.6654</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0597</v>
+        <v>0.0496</v>
       </c>
       <c r="B7" s="0">
-        <v>348.5859</v>
+        <v>342.0229</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0793</v>
+        <v>0.0607</v>
       </c>
       <c r="B8" s="0">
-        <v>364.0399</v>
+        <v>349.0811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1001</v>
+        <v>0.0789</v>
       </c>
       <c r="B9" s="0">
-        <v>379.4966</v>
+        <v>364.9662</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.151</v>
+        <v>0.1005</v>
       </c>
       <c r="B10" s="0">
-        <v>404.5062</v>
+        <v>378.4943</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1996</v>
+        <v>0.1501</v>
       </c>
       <c r="B11" s="0">
-        <v>428.325</v>
+        <v>404.9579</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2505</v>
+        <v>0.2004</v>
       </c>
       <c r="B12" s="0">
-        <v>450.9642</v>
+        <v>428.4775</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2991</v>
+        <v>0.25</v>
       </c>
       <c r="B13" s="0">
-        <v>468.8571</v>
+        <v>449.0538</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3523</v>
+        <v>0.2991</v>
       </c>
       <c r="B14" s="0">
-        <v>486.761</v>
+        <v>467.2756</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4021</v>
+        <v>0.3522</v>
       </c>
       <c r="B15" s="0">
-        <v>502.2863</v>
+        <v>486.6724</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4518</v>
+        <v>0.4025</v>
       </c>
       <c r="B16" s="0">
-        <v>518.9968</v>
+        <v>503.1272</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5015</v>
+        <v>0.4527</v>
       </c>
       <c r="B17" s="0">
-        <v>533.337</v>
+        <v>517.2272</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5501</v>
+        <v>0.5035</v>
       </c>
       <c r="B18" s="0">
-        <v>546.4892</v>
+        <v>531.3268</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5999</v>
+        <v>0.5508</v>
       </c>
       <c r="B19" s="0">
-        <v>559.6442</v>
+        <v>543.6623</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6496</v>
+        <v>0.6005</v>
       </c>
       <c r="B20" s="0">
-        <v>571.614</v>
+        <v>558.3513</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6982</v>
+        <v>0.6501</v>
       </c>
       <c r="B21" s="0">
-        <v>584.7662</v>
+        <v>571.2741</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7503</v>
+        <v>0.7004</v>
       </c>
       <c r="B22" s="0">
-        <v>597.9266</v>
+        <v>583.0191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.8012</v>
+        <v>0.7506</v>
       </c>
       <c r="B23" s="0">
-        <v>612.2695</v>
+        <v>596.5304</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8498</v>
+        <v>0.8014</v>
       </c>
       <c r="B24" s="0">
-        <v>626.6069</v>
+        <v>610.63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8984</v>
+        <v>0.8516</v>
       </c>
       <c r="B25" s="0">
-        <v>638.5739</v>
+        <v>623.5524</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.947</v>
+        <v>0.8989</v>
       </c>
       <c r="B26" s="0">
-        <v>649.3558</v>
+        <v>636.4766</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9794</v>
+        <v>0.9468</v>
       </c>
       <c r="B27" s="0">
-        <v>656.5437</v>
-      </c>
-    </row>
-    <row r="28"/>
+        <v>648.2231</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.9807</v>
+      </c>
+      <c r="B28" s="0">
+        <v>652.9129</v>
+      </c>
+    </row>
+    <row r="29"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4241,7 +6991,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4262,197 +7012,221 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9798</v>
+        <v>0.9796</v>
       </c>
       <c r="B3" s="0">
-        <v>353.1373</v>
+        <v>655.2686</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0182</v>
+        <v>0.9509</v>
       </c>
       <c r="B4" s="0">
-        <v>224.0431</v>
+        <v>641.1559</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0309</v>
+        <v>0.9001</v>
       </c>
       <c r="B5" s="0">
-        <v>232.3696</v>
+        <v>617.6366</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.039</v>
+        <v>0.8493</v>
       </c>
       <c r="B6" s="0">
-        <v>241.8702</v>
+        <v>591.1737</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0633</v>
+        <v>0.7979</v>
       </c>
       <c r="B7" s="0">
-        <v>252.5945</v>
+        <v>567.066</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0795</v>
+        <v>0.7488</v>
       </c>
       <c r="B8" s="0">
-        <v>262.1143</v>
+        <v>544.7231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.098</v>
+        <v>0.7009</v>
       </c>
       <c r="B9" s="0">
-        <v>270.4545</v>
+        <v>524.7345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1524</v>
+        <v>0.6495</v>
       </c>
       <c r="B10" s="0">
-        <v>276.5093</v>
+        <v>505.9254</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2033</v>
+        <v>0.6005</v>
       </c>
       <c r="B11" s="0">
-        <v>288.4819</v>
+        <v>490.0586</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2484</v>
+        <v>0.5496</v>
       </c>
       <c r="B12" s="0">
-        <v>292.1444</v>
+        <v>472.4266</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3005</v>
+        <v>0.5</v>
       </c>
       <c r="B13" s="0">
-        <v>297.0086</v>
+        <v>457.1489</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3503</v>
+        <v>0.4498</v>
       </c>
       <c r="B14" s="0">
-        <v>299.4969</v>
+        <v>441.8715</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4012</v>
+        <v>0.3989</v>
       </c>
       <c r="B15" s="0">
-        <v>305.5435</v>
+        <v>430.7155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4509</v>
+        <v>0.3516</v>
       </c>
       <c r="B16" s="0">
-        <v>310.4022</v>
+        <v>414.2589</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4972</v>
+        <v>0.2996</v>
       </c>
       <c r="B17" s="0">
-        <v>316.4379</v>
+        <v>400.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5481</v>
+        <v>0.2494</v>
       </c>
       <c r="B18" s="0">
-        <v>322.4845</v>
+        <v>377.2291</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5991</v>
+        <v>0.1986</v>
       </c>
       <c r="B19" s="0">
-        <v>324.9756</v>
+        <v>359.5971</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.65</v>
+        <v>0.1513</v>
       </c>
       <c r="B20" s="0">
-        <v>329.837</v>
+        <v>346.6729</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6998</v>
+        <v>0.104</v>
       </c>
       <c r="B21" s="0">
-        <v>332.3253</v>
+        <v>326.684</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7495</v>
+        <v>0.0841</v>
       </c>
       <c r="B22" s="0">
-        <v>337.184</v>
+        <v>316.0985</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7981</v>
+        <v>0.0654</v>
       </c>
       <c r="B23" s="0">
-        <v>342.04</v>
+        <v>305.5124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8467</v>
+        <v>0.045</v>
       </c>
       <c r="B24" s="0">
-        <v>345.7107</v>
+        <v>290.2174</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8988</v>
+        <v>0.0345</v>
       </c>
       <c r="B25" s="0">
-        <v>348.2046</v>
+        <v>281.3927</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9463</v>
+        <v>0.0239</v>
       </c>
       <c r="B26" s="0">
-        <v>350.6874</v>
-      </c>
-    </row>
-    <row r="27"/>
+        <v>269.0355</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0146</v>
+      </c>
+      <c r="B27" s="0">
+        <v>245.4918</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0088</v>
+      </c>
+      <c r="B28" s="0">
+        <v>220.7686</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0064</v>
+      </c>
+      <c r="B29" s="0">
+        <v>188.3898</v>
+      </c>
+    </row>
+    <row r="30"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4461,7 +7235,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4482,197 +7256,293 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0205</v>
+        <v>0.9854</v>
       </c>
       <c r="B3" s="0">
-        <v>202.7154</v>
+        <v>151.9009</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0321</v>
+        <v>0.9725</v>
       </c>
       <c r="B4" s="0">
-        <v>211.0391</v>
+        <v>151.3198</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0425</v>
+        <v>0.9387</v>
       </c>
       <c r="B5" s="0">
-        <v>218.1748</v>
+        <v>148.9848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0622</v>
+        <v>0.8768</v>
       </c>
       <c r="B6" s="0">
-        <v>228.8881</v>
+        <v>147.8438</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0807</v>
+        <v>0.8621</v>
       </c>
       <c r="B7" s="0">
-        <v>238.4134</v>
+        <v>148.4411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0992</v>
+        <v>0.8014</v>
       </c>
       <c r="B8" s="0">
-        <v>245.5684</v>
+        <v>147.2994</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1501</v>
+        <v>0.7845</v>
       </c>
       <c r="B9" s="0">
-        <v>257.541</v>
+        <v>146.1319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2022</v>
+        <v>0.7307</v>
       </c>
       <c r="B10" s="0">
-        <v>267.1459</v>
+        <v>146.1636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2519</v>
+        <v>0.719</v>
       </c>
       <c r="B11" s="0">
-        <v>273.1897</v>
+        <v>145.5817</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2982</v>
+        <v>0.6682</v>
       </c>
       <c r="B12" s="0">
-        <v>280.4106</v>
+        <v>143.8455</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3503</v>
+        <v>0.6472</v>
       </c>
       <c r="B13" s="0">
-        <v>286.4599</v>
+        <v>144.4466</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3989</v>
+        <v>0.625</v>
       </c>
       <c r="B14" s="0">
-        <v>291.3159</v>
+        <v>142.6934</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4486</v>
+        <v>0.5759</v>
       </c>
       <c r="B15" s="0">
-        <v>294.9894</v>
+        <v>142.7223</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4984</v>
+        <v>0.5111</v>
       </c>
       <c r="B16" s="0">
-        <v>299.8481</v>
+        <v>141.583</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5516</v>
+        <v>0.4673</v>
       </c>
       <c r="B17" s="0">
-        <v>304.715</v>
+        <v>138.6652</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6002</v>
+        <v>0.4252</v>
       </c>
       <c r="B18" s="0">
-        <v>309.571</v>
+        <v>138.6899</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.6512</v>
+        <v>0.3943</v>
       </c>
       <c r="B19" s="0">
-        <v>313.2472</v>
+        <v>138.1194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6986</v>
+        <v>0.3581</v>
       </c>
       <c r="B20" s="0">
-        <v>318.1004</v>
+        <v>138.1408</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.7495</v>
+        <v>0.3201</v>
       </c>
       <c r="B21" s="0">
-        <v>321.7767</v>
+        <v>136.9856</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7993</v>
+        <v>0.3014</v>
       </c>
       <c r="B22" s="0">
-        <v>329.0057</v>
+        <v>136.9967</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.8514</v>
+        <v>0.2739</v>
       </c>
       <c r="B23" s="0">
-        <v>333.8699</v>
+        <v>135.2466</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9034</v>
+        <v>0.2512</v>
       </c>
       <c r="B24" s="0">
-        <v>342.2896</v>
+        <v>134.6713</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9497</v>
+        <v>0.2278</v>
       </c>
       <c r="B25" s="0">
-        <v>345.9549</v>
+        <v>135.2738</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9798</v>
+        <v>0.2068</v>
       </c>
       <c r="B26" s="0">
-        <v>353.1373</v>
-      </c>
-    </row>
-    <row r="27"/>
+        <v>134.6974</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.1822</v>
+      </c>
+      <c r="B27" s="0">
+        <v>134.1232</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.1548</v>
+      </c>
+      <c r="B28" s="0">
+        <v>132.9619</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.1326</v>
+      </c>
+      <c r="B29" s="0">
+        <v>132.9749</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.1086</v>
+      </c>
+      <c r="B30" s="0">
+        <v>131.8116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.09</v>
+      </c>
+      <c r="B31" s="0">
+        <v>131.2338</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0678</v>
+      </c>
+      <c r="B32" s="0">
+        <v>129.4807</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0514</v>
+      </c>
+      <c r="B33" s="0">
+        <v>125.958</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.038</v>
+      </c>
+      <c r="B34" s="0">
+        <v>124.7884</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0275</v>
+      </c>
+      <c r="B35" s="0">
+        <v>121.2622</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0199</v>
+      </c>
+      <c r="B36" s="0">
+        <v>118.9118</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0099</v>
+      </c>
+      <c r="B37" s="0">
+        <v>111.8529</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0058</v>
+      </c>
+      <c r="B38" s="0">
+        <v>100.6694</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4702,6 +7572,674 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
+        <v>0.0204</v>
+      </c>
+      <c r="B3" s="0">
+        <v>296.3447</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0296</v>
+      </c>
+      <c r="B4" s="0">
+        <v>315.3295</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.04</v>
+      </c>
+      <c r="B5" s="0">
+        <v>327.206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0504</v>
+      </c>
+      <c r="B6" s="0">
+        <v>342.6381</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0597</v>
+      </c>
+      <c r="B7" s="0">
+        <v>348.5859</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0793</v>
+      </c>
+      <c r="B8" s="0">
+        <v>364.0399</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1001</v>
+      </c>
+      <c r="B9" s="0">
+        <v>379.4966</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.151</v>
+      </c>
+      <c r="B10" s="0">
+        <v>404.5062</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1996</v>
+      </c>
+      <c r="B11" s="0">
+        <v>428.325</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2505</v>
+      </c>
+      <c r="B12" s="0">
+        <v>450.9642</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2991</v>
+      </c>
+      <c r="B13" s="0">
+        <v>468.8571</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3523</v>
+      </c>
+      <c r="B14" s="0">
+        <v>486.761</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4021</v>
+      </c>
+      <c r="B15" s="0">
+        <v>502.2863</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4518</v>
+      </c>
+      <c r="B16" s="0">
+        <v>518.9968</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.5015</v>
+      </c>
+      <c r="B17" s="0">
+        <v>533.337</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5501</v>
+      </c>
+      <c r="B18" s="0">
+        <v>546.4892</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5999</v>
+      </c>
+      <c r="B19" s="0">
+        <v>559.6442</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.6496</v>
+      </c>
+      <c r="B20" s="0">
+        <v>571.614</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6982</v>
+      </c>
+      <c r="B21" s="0">
+        <v>584.7662</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.7503</v>
+      </c>
+      <c r="B22" s="0">
+        <v>597.9266</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.8012</v>
+      </c>
+      <c r="B23" s="0">
+        <v>612.2695</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.8498</v>
+      </c>
+      <c r="B24" s="0">
+        <v>626.6069</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8984</v>
+      </c>
+      <c r="B25" s="0">
+        <v>638.5739</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.947</v>
+      </c>
+      <c r="B26" s="0">
+        <v>649.3558</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.9794</v>
+      </c>
+      <c r="B27" s="0">
+        <v>656.5437</v>
+      </c>
+    </row>
+    <row r="28"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9798</v>
+      </c>
+      <c r="B3" s="0">
+        <v>353.1373</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0182</v>
+      </c>
+      <c r="B4" s="0">
+        <v>224.0431</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0309</v>
+      </c>
+      <c r="B5" s="0">
+        <v>232.3696</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.039</v>
+      </c>
+      <c r="B6" s="0">
+        <v>241.8702</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0633</v>
+      </c>
+      <c r="B7" s="0">
+        <v>252.5945</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0795</v>
+      </c>
+      <c r="B8" s="0">
+        <v>262.1143</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.098</v>
+      </c>
+      <c r="B9" s="0">
+        <v>270.4545</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1524</v>
+      </c>
+      <c r="B10" s="0">
+        <v>276.5093</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2033</v>
+      </c>
+      <c r="B11" s="0">
+        <v>288.4819</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2484</v>
+      </c>
+      <c r="B12" s="0">
+        <v>292.1444</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.3005</v>
+      </c>
+      <c r="B13" s="0">
+        <v>297.0086</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3503</v>
+      </c>
+      <c r="B14" s="0">
+        <v>299.4969</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4012</v>
+      </c>
+      <c r="B15" s="0">
+        <v>305.5435</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4509</v>
+      </c>
+      <c r="B16" s="0">
+        <v>310.4022</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4972</v>
+      </c>
+      <c r="B17" s="0">
+        <v>316.4379</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5481</v>
+      </c>
+      <c r="B18" s="0">
+        <v>322.4845</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5991</v>
+      </c>
+      <c r="B19" s="0">
+        <v>324.9756</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.65</v>
+      </c>
+      <c r="B20" s="0">
+        <v>329.837</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6998</v>
+      </c>
+      <c r="B21" s="0">
+        <v>332.3253</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.7495</v>
+      </c>
+      <c r="B22" s="0">
+        <v>337.184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7981</v>
+      </c>
+      <c r="B23" s="0">
+        <v>342.04</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.8467</v>
+      </c>
+      <c r="B24" s="0">
+        <v>345.7107</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.8988</v>
+      </c>
+      <c r="B25" s="0">
+        <v>348.2046</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.9463</v>
+      </c>
+      <c r="B26" s="0">
+        <v>350.6874</v>
+      </c>
+    </row>
+    <row r="27"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0205</v>
+      </c>
+      <c r="B3" s="0">
+        <v>202.7154</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0321</v>
+      </c>
+      <c r="B4" s="0">
+        <v>211.0391</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0425</v>
+      </c>
+      <c r="B5" s="0">
+        <v>218.1748</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0622</v>
+      </c>
+      <c r="B6" s="0">
+        <v>228.8881</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0807</v>
+      </c>
+      <c r="B7" s="0">
+        <v>238.4134</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0992</v>
+      </c>
+      <c r="B8" s="0">
+        <v>245.5684</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1501</v>
+      </c>
+      <c r="B9" s="0">
+        <v>257.541</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.2022</v>
+      </c>
+      <c r="B10" s="0">
+        <v>267.1459</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2519</v>
+      </c>
+      <c r="B11" s="0">
+        <v>273.1897</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2982</v>
+      </c>
+      <c r="B12" s="0">
+        <v>280.4106</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.3503</v>
+      </c>
+      <c r="B13" s="0">
+        <v>286.4599</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3989</v>
+      </c>
+      <c r="B14" s="0">
+        <v>291.3159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4486</v>
+      </c>
+      <c r="B15" s="0">
+        <v>294.9894</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4984</v>
+      </c>
+      <c r="B16" s="0">
+        <v>299.8481</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.5516</v>
+      </c>
+      <c r="B17" s="0">
+        <v>304.715</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.6002</v>
+      </c>
+      <c r="B18" s="0">
+        <v>309.571</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.6512</v>
+      </c>
+      <c r="B19" s="0">
+        <v>313.2472</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.6986</v>
+      </c>
+      <c r="B20" s="0">
+        <v>318.1004</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.7495</v>
+      </c>
+      <c r="B21" s="0">
+        <v>321.7767</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.7993</v>
+      </c>
+      <c r="B22" s="0">
+        <v>329.0057</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.8514</v>
+      </c>
+      <c r="B23" s="0">
+        <v>333.8699</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.9034</v>
+      </c>
+      <c r="B24" s="0">
+        <v>342.2896</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.9497</v>
+      </c>
+      <c r="B25" s="0">
+        <v>345.9549</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.9798</v>
+      </c>
+      <c r="B26" s="0">
+        <v>353.1373</v>
+      </c>
+    </row>
+    <row r="27"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>0.9788</v>
       </c>
       <c r="B3" s="0">

--- a/ArticleManage/main_working_folder/output_folders/Data 95 Micro Mesoporous Activated Carbon/Data95_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 95 Micro Mesoporous Activated Carbon/Data95_all_graphs_excel.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 AC-1-1  0&amp;1&amp;0&amp;700 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 AC-1-2  0&amp;1&amp;0&amp;700 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 AC-4-1  0&amp;1&amp;0&amp;700 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2_1 AC-1h  0&amp;1&amp;0&amp;800 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2_1 AC-2h  0&amp;1&amp;0&amp;800 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2_1 AC-3h  0&amp;1&amp;0&amp;800 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 2_1 AC-4h  0&amp;1&amp;0&amp;800 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2_1 AC-1h  0&amp;1&amp;0&amp;800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 AC-2h  0&amp;1&amp;0&amp;800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_1 AC-3h  0&amp;1&amp;0&amp;800 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_1 AC-4h  0&amp;1&amp;0&amp;800 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_2 AC-1-1  0&amp;1&amp;0&amp;700 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_2 AC-1-2  0&amp;1&amp;0&amp;700 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_2 AC-4-1  0&amp;1&amp;0&amp;700 " sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -20,22 +20,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>AC-1-1</t>
+    <t>AC-1h</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>AC-1-2</t>
-  </si>
-  <si>
-    <t>AC-4-1</t>
-  </si>
-  <si>
-    <t>AC-1h</t>
   </si>
   <si>
     <t>AC-2h</t>
@@ -45,6 +36,15 @@
   </si>
   <si>
     <t>AC-4h</t>
+  </si>
+  <si>
+    <t>AC-1-1</t>
+  </si>
+  <si>
+    <t>AC-1-2</t>
+  </si>
+  <si>
+    <t>AC-4-1</t>
   </si>
 </sst>
 </file>
@@ -89,948 +89,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-1-1 z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 AC-1-1  0&amp;1&amp;0&amp;700 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 AC-1-1  0&amp;1&amp;0&amp;700 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="700"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-1-2 z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 AC-1-2  0&amp;1&amp;0&amp;700 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 AC-1-2  0&amp;1&amp;0&amp;700 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="700"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-4-1 z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 AC-4-1  0&amp;1&amp;0&amp;700 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 AC-4-1  0&amp;1&amp;0&amp;700 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="700"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1344,7 +402,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1658,7 +716,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1972,7 +1030,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2154,6 +1212,948 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC-1-1 z wykresu 'Figure 2_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 AC-1-1  0&amp;1&amp;0&amp;700 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 AC-1-1  0&amp;1&amp;0&amp;700 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC-1-2 z wykresu 'Figure 2_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 AC-1-2  0&amp;1&amp;0&amp;700 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 AC-1-2  0&amp;1&amp;0&amp;700 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC-4-1 z wykresu 'Figure 2_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 AC-4-1  0&amp;1&amp;0&amp;700 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 AC-4-1  0&amp;1&amp;0&amp;700 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6755,7 +6755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6776,213 +6776,205 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0047</v>
+        <v>0.0204</v>
       </c>
       <c r="B3" s="0">
-        <v>134.2277</v>
+        <v>296.3447</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0199</v>
+        <v>0.0296</v>
       </c>
       <c r="B4" s="0">
-        <v>297.297</v>
+        <v>315.3295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0304</v>
+        <v>0.04</v>
       </c>
       <c r="B5" s="0">
-        <v>315.5414</v>
+        <v>327.206</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0397</v>
+        <v>0.0504</v>
       </c>
       <c r="B6" s="0">
-        <v>329.6654</v>
+        <v>342.6381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0496</v>
+        <v>0.0597</v>
       </c>
       <c r="B7" s="0">
-        <v>342.0229</v>
+        <v>348.5859</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0607</v>
+        <v>0.0793</v>
       </c>
       <c r="B8" s="0">
-        <v>349.0811</v>
+        <v>364.0399</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0789</v>
+        <v>0.1001</v>
       </c>
       <c r="B9" s="0">
-        <v>364.9662</v>
+        <v>379.4966</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1005</v>
+        <v>0.151</v>
       </c>
       <c r="B10" s="0">
-        <v>378.4943</v>
+        <v>404.5062</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1501</v>
+        <v>0.1996</v>
       </c>
       <c r="B11" s="0">
-        <v>404.9579</v>
+        <v>428.325</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2004</v>
+        <v>0.2505</v>
       </c>
       <c r="B12" s="0">
-        <v>428.4775</v>
+        <v>450.9642</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.25</v>
+        <v>0.2991</v>
       </c>
       <c r="B13" s="0">
-        <v>449.0538</v>
+        <v>468.8571</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2991</v>
+        <v>0.3523</v>
       </c>
       <c r="B14" s="0">
-        <v>467.2756</v>
+        <v>486.761</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3522</v>
+        <v>0.4021</v>
       </c>
       <c r="B15" s="0">
-        <v>486.6724</v>
+        <v>502.2863</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4025</v>
+        <v>0.4518</v>
       </c>
       <c r="B16" s="0">
-        <v>503.1272</v>
+        <v>518.9968</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4527</v>
+        <v>0.5015</v>
       </c>
       <c r="B17" s="0">
-        <v>517.2272</v>
+        <v>533.337</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5035</v>
+        <v>0.5501</v>
       </c>
       <c r="B18" s="0">
-        <v>531.3268</v>
+        <v>546.4892</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5508</v>
+        <v>0.5999</v>
       </c>
       <c r="B19" s="0">
-        <v>543.6623</v>
+        <v>559.6442</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6005</v>
+        <v>0.6496</v>
       </c>
       <c r="B20" s="0">
-        <v>558.3513</v>
+        <v>571.614</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6501</v>
+        <v>0.6982</v>
       </c>
       <c r="B21" s="0">
-        <v>571.2741</v>
+        <v>584.7662</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7004</v>
+        <v>0.7503</v>
       </c>
       <c r="B22" s="0">
-        <v>583.0191</v>
+        <v>597.9266</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7506</v>
+        <v>0.8012</v>
       </c>
       <c r="B23" s="0">
-        <v>596.5304</v>
+        <v>612.2695</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8014</v>
+        <v>0.8498</v>
       </c>
       <c r="B24" s="0">
-        <v>610.63</v>
+        <v>626.6069</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8516</v>
+        <v>0.8984</v>
       </c>
       <c r="B25" s="0">
-        <v>623.5524</v>
+        <v>638.5739</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8989</v>
+        <v>0.947</v>
       </c>
       <c r="B26" s="0">
-        <v>636.4766</v>
+        <v>649.3558</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9468</v>
+        <v>0.9794</v>
       </c>
       <c r="B27" s="0">
-        <v>648.2231</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.9807</v>
-      </c>
-      <c r="B28" s="0">
-        <v>652.9129</v>
-      </c>
-    </row>
-    <row r="29"/>
+        <v>656.5437</v>
+      </c>
+    </row>
+    <row r="28"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6991,7 +6983,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7012,221 +7004,197 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9796</v>
+        <v>0.9798</v>
       </c>
       <c r="B3" s="0">
-        <v>655.2686</v>
+        <v>353.1373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9509</v>
+        <v>0.0182</v>
       </c>
       <c r="B4" s="0">
-        <v>641.1559</v>
+        <v>224.0431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9001</v>
+        <v>0.0309</v>
       </c>
       <c r="B5" s="0">
-        <v>617.6366</v>
+        <v>232.3696</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8493</v>
+        <v>0.039</v>
       </c>
       <c r="B6" s="0">
-        <v>591.1737</v>
+        <v>241.8702</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7979</v>
+        <v>0.0633</v>
       </c>
       <c r="B7" s="0">
-        <v>567.066</v>
+        <v>252.5945</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7488</v>
+        <v>0.0795</v>
       </c>
       <c r="B8" s="0">
-        <v>544.7231</v>
+        <v>262.1143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7009</v>
+        <v>0.098</v>
       </c>
       <c r="B9" s="0">
-        <v>524.7345</v>
+        <v>270.4545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6495</v>
+        <v>0.1524</v>
       </c>
       <c r="B10" s="0">
-        <v>505.9254</v>
+        <v>276.5093</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6005</v>
+        <v>0.2033</v>
       </c>
       <c r="B11" s="0">
-        <v>490.0586</v>
+        <v>288.4819</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5496</v>
+        <v>0.2484</v>
       </c>
       <c r="B12" s="0">
-        <v>472.4266</v>
+        <v>292.1444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5</v>
+        <v>0.3005</v>
       </c>
       <c r="B13" s="0">
-        <v>457.1489</v>
+        <v>297.0086</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4498</v>
+        <v>0.3503</v>
       </c>
       <c r="B14" s="0">
-        <v>441.8715</v>
+        <v>299.4969</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3989</v>
+        <v>0.4012</v>
       </c>
       <c r="B15" s="0">
-        <v>430.7155</v>
+        <v>305.5435</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3516</v>
+        <v>0.4509</v>
       </c>
       <c r="B16" s="0">
-        <v>414.2589</v>
+        <v>310.4022</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2996</v>
+        <v>0.4972</v>
       </c>
       <c r="B17" s="0">
-        <v>400.16</v>
+        <v>316.4379</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2494</v>
+        <v>0.5481</v>
       </c>
       <c r="B18" s="0">
-        <v>377.2291</v>
+        <v>322.4845</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1986</v>
+        <v>0.5991</v>
       </c>
       <c r="B19" s="0">
-        <v>359.5971</v>
+        <v>324.9756</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1513</v>
+        <v>0.65</v>
       </c>
       <c r="B20" s="0">
-        <v>346.6729</v>
+        <v>329.837</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.104</v>
+        <v>0.6998</v>
       </c>
       <c r="B21" s="0">
-        <v>326.684</v>
+        <v>332.3253</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0841</v>
+        <v>0.7495</v>
       </c>
       <c r="B22" s="0">
-        <v>316.0985</v>
+        <v>337.184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0654</v>
+        <v>0.7981</v>
       </c>
       <c r="B23" s="0">
-        <v>305.5124</v>
+        <v>342.04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.045</v>
+        <v>0.8467</v>
       </c>
       <c r="B24" s="0">
-        <v>290.2174</v>
+        <v>345.7107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0345</v>
+        <v>0.8988</v>
       </c>
       <c r="B25" s="0">
-        <v>281.3927</v>
+        <v>348.2046</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0239</v>
+        <v>0.9463</v>
       </c>
       <c r="B26" s="0">
-        <v>269.0355</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0146</v>
-      </c>
-      <c r="B27" s="0">
-        <v>245.4918</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0088</v>
-      </c>
-      <c r="B28" s="0">
-        <v>220.7686</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0064</v>
-      </c>
-      <c r="B29" s="0">
-        <v>188.3898</v>
-      </c>
-    </row>
-    <row r="30"/>
+        <v>350.6874</v>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7235,7 +7203,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7256,293 +7224,197 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9854</v>
+        <v>0.0205</v>
       </c>
       <c r="B3" s="0">
-        <v>151.9009</v>
+        <v>202.7154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9725</v>
+        <v>0.0321</v>
       </c>
       <c r="B4" s="0">
-        <v>151.3198</v>
+        <v>211.0391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9387</v>
+        <v>0.0425</v>
       </c>
       <c r="B5" s="0">
-        <v>148.9848</v>
+        <v>218.1748</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8768</v>
+        <v>0.0622</v>
       </c>
       <c r="B6" s="0">
-        <v>147.8438</v>
+        <v>228.8881</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8621</v>
+        <v>0.0807</v>
       </c>
       <c r="B7" s="0">
-        <v>148.4411</v>
+        <v>238.4134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8014</v>
+        <v>0.0992</v>
       </c>
       <c r="B8" s="0">
-        <v>147.2994</v>
+        <v>245.5684</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7845</v>
+        <v>0.1501</v>
       </c>
       <c r="B9" s="0">
-        <v>146.1319</v>
+        <v>257.541</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7307</v>
+        <v>0.2022</v>
       </c>
       <c r="B10" s="0">
-        <v>146.1636</v>
+        <v>267.1459</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.719</v>
+        <v>0.2519</v>
       </c>
       <c r="B11" s="0">
-        <v>145.5817</v>
+        <v>273.1897</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6682</v>
+        <v>0.2982</v>
       </c>
       <c r="B12" s="0">
-        <v>143.8455</v>
+        <v>280.4106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6472</v>
+        <v>0.3503</v>
       </c>
       <c r="B13" s="0">
-        <v>144.4466</v>
+        <v>286.4599</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.625</v>
+        <v>0.3989</v>
       </c>
       <c r="B14" s="0">
-        <v>142.6934</v>
+        <v>291.3159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.5759</v>
+        <v>0.4486</v>
       </c>
       <c r="B15" s="0">
-        <v>142.7223</v>
+        <v>294.9894</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5111</v>
+        <v>0.4984</v>
       </c>
       <c r="B16" s="0">
-        <v>141.583</v>
+        <v>299.8481</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4673</v>
+        <v>0.5516</v>
       </c>
       <c r="B17" s="0">
-        <v>138.6652</v>
+        <v>304.715</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4252</v>
+        <v>0.6002</v>
       </c>
       <c r="B18" s="0">
-        <v>138.6899</v>
+        <v>309.571</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3943</v>
+        <v>0.6512</v>
       </c>
       <c r="B19" s="0">
-        <v>138.1194</v>
+        <v>313.2472</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3581</v>
+        <v>0.6986</v>
       </c>
       <c r="B20" s="0">
-        <v>138.1408</v>
+        <v>318.1004</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3201</v>
+        <v>0.7495</v>
       </c>
       <c r="B21" s="0">
-        <v>136.9856</v>
+        <v>321.7767</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3014</v>
+        <v>0.7993</v>
       </c>
       <c r="B22" s="0">
-        <v>136.9967</v>
+        <v>329.0057</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2739</v>
+        <v>0.8514</v>
       </c>
       <c r="B23" s="0">
-        <v>135.2466</v>
+        <v>333.8699</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2512</v>
+        <v>0.9034</v>
       </c>
       <c r="B24" s="0">
-        <v>134.6713</v>
+        <v>342.2896</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2278</v>
+        <v>0.9497</v>
       </c>
       <c r="B25" s="0">
-        <v>135.2738</v>
+        <v>345.9549</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.2068</v>
+        <v>0.9798</v>
       </c>
       <c r="B26" s="0">
-        <v>134.6974</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.1822</v>
-      </c>
-      <c r="B27" s="0">
-        <v>134.1232</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.1548</v>
-      </c>
-      <c r="B28" s="0">
-        <v>132.9619</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.1326</v>
-      </c>
-      <c r="B29" s="0">
-        <v>132.9749</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.1086</v>
-      </c>
-      <c r="B30" s="0">
-        <v>131.8116</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.09</v>
-      </c>
-      <c r="B31" s="0">
-        <v>131.2338</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0678</v>
-      </c>
-      <c r="B32" s="0">
-        <v>129.4807</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0514</v>
-      </c>
-      <c r="B33" s="0">
-        <v>125.958</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.038</v>
-      </c>
-      <c r="B34" s="0">
-        <v>124.7884</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0275</v>
-      </c>
-      <c r="B35" s="0">
-        <v>121.2622</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0199</v>
-      </c>
-      <c r="B36" s="0">
-        <v>118.9118</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.0099</v>
-      </c>
-      <c r="B37" s="0">
-        <v>111.8529</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.0058</v>
-      </c>
-      <c r="B38" s="0">
-        <v>100.6694</v>
-      </c>
-    </row>
-    <row r="39"/>
+        <v>353.1373</v>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7572,202 +7444,202 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0204</v>
+        <v>0.9788</v>
       </c>
       <c r="B3" s="0">
-        <v>296.3447</v>
+        <v>227.5054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0296</v>
+        <v>0.9499</v>
       </c>
       <c r="B4" s="0">
-        <v>315.3295</v>
+        <v>227.4368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.04</v>
+        <v>0.9013</v>
       </c>
       <c r="B5" s="0">
-        <v>327.206</v>
+        <v>223.766</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0504</v>
+        <v>0.8515</v>
       </c>
       <c r="B6" s="0">
-        <v>342.6381</v>
+        <v>220.0925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0597</v>
+        <v>0.8006</v>
       </c>
       <c r="B7" s="0">
-        <v>348.5859</v>
+        <v>215.2311</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0793</v>
+        <v>0.7509</v>
       </c>
       <c r="B8" s="0">
-        <v>364.0399</v>
+        <v>211.5576</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1001</v>
+        <v>0.7011</v>
       </c>
       <c r="B9" s="0">
-        <v>379.4966</v>
+        <v>207.8841</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.151</v>
+        <v>0.6502</v>
       </c>
       <c r="B10" s="0">
-        <v>404.5062</v>
+        <v>206.5782</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1996</v>
+        <v>0.6016</v>
       </c>
       <c r="B11" s="0">
-        <v>428.325</v>
+        <v>202.9074</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2505</v>
+        <v>0.5518</v>
       </c>
       <c r="B12" s="0">
-        <v>450.9642</v>
+        <v>200.4191</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2991</v>
+        <v>0.502</v>
       </c>
       <c r="B13" s="0">
-        <v>468.8571</v>
+        <v>199.1159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3523</v>
+        <v>0.4523</v>
       </c>
       <c r="B14" s="0">
-        <v>486.761</v>
+        <v>195.4424</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4021</v>
+        <v>0.4013</v>
       </c>
       <c r="B15" s="0">
-        <v>502.2863</v>
+        <v>194.1365</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4518</v>
+        <v>0.3574</v>
       </c>
       <c r="B16" s="0">
-        <v>518.9968</v>
+        <v>189.2915</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5015</v>
+        <v>0.3053</v>
       </c>
       <c r="B17" s="0">
-        <v>533.337</v>
+        <v>186.7977</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5501</v>
+        <v>0.2532</v>
       </c>
       <c r="B18" s="0">
-        <v>546.4892</v>
+        <v>183.1187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5999</v>
+        <v>0.2034</v>
       </c>
       <c r="B19" s="0">
-        <v>559.6442</v>
+        <v>178.26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6496</v>
+        <v>0.1514</v>
       </c>
       <c r="B20" s="0">
-        <v>571.614</v>
+        <v>175.7662</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6982</v>
+        <v>0.097</v>
       </c>
       <c r="B21" s="0">
-        <v>584.7662</v>
+        <v>166.1558</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7503</v>
+        <v>0.0796</v>
       </c>
       <c r="B22" s="0">
-        <v>597.9266</v>
+        <v>162.5591</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.8012</v>
+        <v>0.0657</v>
       </c>
       <c r="B23" s="0">
-        <v>612.2695</v>
+        <v>157.7855</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8498</v>
+        <v>0.0484</v>
       </c>
       <c r="B24" s="0">
-        <v>626.6069</v>
+        <v>154.1888</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8984</v>
+        <v>0.0334</v>
       </c>
       <c r="B25" s="0">
-        <v>638.5739</v>
+        <v>148.2272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.947</v>
+        <v>0.0229</v>
       </c>
       <c r="B26" s="0">
-        <v>649.3558</v>
+        <v>139.9062</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9794</v>
+        <v>0.0149</v>
       </c>
       <c r="B27" s="0">
-        <v>656.5437</v>
+        <v>132.776</v>
       </c>
     </row>
     <row r="28"/>
@@ -7779,7 +7651,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7800,197 +7672,213 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9798</v>
+        <v>0.0047</v>
       </c>
       <c r="B3" s="0">
-        <v>353.1373</v>
+        <v>134.2277</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0182</v>
+        <v>0.0199</v>
       </c>
       <c r="B4" s="0">
-        <v>224.0431</v>
+        <v>297.297</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0309</v>
+        <v>0.0304</v>
       </c>
       <c r="B5" s="0">
-        <v>232.3696</v>
+        <v>315.5414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.039</v>
+        <v>0.0397</v>
       </c>
       <c r="B6" s="0">
-        <v>241.8702</v>
+        <v>329.6654</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0633</v>
+        <v>0.0496</v>
       </c>
       <c r="B7" s="0">
-        <v>252.5945</v>
+        <v>342.0229</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0795</v>
+        <v>0.0607</v>
       </c>
       <c r="B8" s="0">
-        <v>262.1143</v>
+        <v>349.0811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.098</v>
+        <v>0.0789</v>
       </c>
       <c r="B9" s="0">
-        <v>270.4545</v>
+        <v>364.9662</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1524</v>
+        <v>0.1005</v>
       </c>
       <c r="B10" s="0">
-        <v>276.5093</v>
+        <v>378.4943</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2033</v>
+        <v>0.1501</v>
       </c>
       <c r="B11" s="0">
-        <v>288.4819</v>
+        <v>404.9579</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2484</v>
+        <v>0.2004</v>
       </c>
       <c r="B12" s="0">
-        <v>292.1444</v>
+        <v>428.4775</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3005</v>
+        <v>0.25</v>
       </c>
       <c r="B13" s="0">
-        <v>297.0086</v>
+        <v>449.0538</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3503</v>
+        <v>0.2991</v>
       </c>
       <c r="B14" s="0">
-        <v>299.4969</v>
+        <v>467.2756</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4012</v>
+        <v>0.3522</v>
       </c>
       <c r="B15" s="0">
-        <v>305.5435</v>
+        <v>486.6724</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4509</v>
+        <v>0.4025</v>
       </c>
       <c r="B16" s="0">
-        <v>310.4022</v>
+        <v>503.1272</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4972</v>
+        <v>0.4527</v>
       </c>
       <c r="B17" s="0">
-        <v>316.4379</v>
+        <v>517.2272</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5481</v>
+        <v>0.5035</v>
       </c>
       <c r="B18" s="0">
-        <v>322.4845</v>
+        <v>531.3268</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5991</v>
+        <v>0.5508</v>
       </c>
       <c r="B19" s="0">
-        <v>324.9756</v>
+        <v>543.6623</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.65</v>
+        <v>0.6005</v>
       </c>
       <c r="B20" s="0">
-        <v>329.837</v>
+        <v>558.3513</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6998</v>
+        <v>0.6501</v>
       </c>
       <c r="B21" s="0">
-        <v>332.3253</v>
+        <v>571.2741</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7495</v>
+        <v>0.7004</v>
       </c>
       <c r="B22" s="0">
-        <v>337.184</v>
+        <v>583.0191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7981</v>
+        <v>0.7506</v>
       </c>
       <c r="B23" s="0">
-        <v>342.04</v>
+        <v>596.5304</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8467</v>
+        <v>0.8014</v>
       </c>
       <c r="B24" s="0">
-        <v>345.7107</v>
+        <v>610.63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8988</v>
+        <v>0.8516</v>
       </c>
       <c r="B25" s="0">
-        <v>348.2046</v>
+        <v>623.5524</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9463</v>
+        <v>0.8989</v>
       </c>
       <c r="B26" s="0">
-        <v>350.6874</v>
-      </c>
-    </row>
-    <row r="27"/>
+        <v>636.4766</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.9468</v>
+      </c>
+      <c r="B27" s="0">
+        <v>648.2231</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.9807</v>
+      </c>
+      <c r="B28" s="0">
+        <v>652.9129</v>
+      </c>
+    </row>
+    <row r="29"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7999,7 +7887,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8020,197 +7908,221 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0205</v>
+        <v>0.9796</v>
       </c>
       <c r="B3" s="0">
-        <v>202.7154</v>
+        <v>655.2686</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0321</v>
+        <v>0.9509</v>
       </c>
       <c r="B4" s="0">
-        <v>211.0391</v>
+        <v>641.1559</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0425</v>
+        <v>0.9001</v>
       </c>
       <c r="B5" s="0">
-        <v>218.1748</v>
+        <v>617.6366</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0622</v>
+        <v>0.8493</v>
       </c>
       <c r="B6" s="0">
-        <v>228.8881</v>
+        <v>591.1737</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0807</v>
+        <v>0.7979</v>
       </c>
       <c r="B7" s="0">
-        <v>238.4134</v>
+        <v>567.066</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0992</v>
+        <v>0.7488</v>
       </c>
       <c r="B8" s="0">
-        <v>245.5684</v>
+        <v>544.7231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1501</v>
+        <v>0.7009</v>
       </c>
       <c r="B9" s="0">
-        <v>257.541</v>
+        <v>524.7345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2022</v>
+        <v>0.6495</v>
       </c>
       <c r="B10" s="0">
-        <v>267.1459</v>
+        <v>505.9254</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2519</v>
+        <v>0.6005</v>
       </c>
       <c r="B11" s="0">
-        <v>273.1897</v>
+        <v>490.0586</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2982</v>
+        <v>0.5496</v>
       </c>
       <c r="B12" s="0">
-        <v>280.4106</v>
+        <v>472.4266</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3503</v>
+        <v>0.5</v>
       </c>
       <c r="B13" s="0">
-        <v>286.4599</v>
+        <v>457.1489</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3989</v>
+        <v>0.4498</v>
       </c>
       <c r="B14" s="0">
-        <v>291.3159</v>
+        <v>441.8715</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4486</v>
+        <v>0.3989</v>
       </c>
       <c r="B15" s="0">
-        <v>294.9894</v>
+        <v>430.7155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4984</v>
+        <v>0.3516</v>
       </c>
       <c r="B16" s="0">
-        <v>299.8481</v>
+        <v>414.2589</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5516</v>
+        <v>0.2996</v>
       </c>
       <c r="B17" s="0">
-        <v>304.715</v>
+        <v>400.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6002</v>
+        <v>0.2494</v>
       </c>
       <c r="B18" s="0">
-        <v>309.571</v>
+        <v>377.2291</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.6512</v>
+        <v>0.1986</v>
       </c>
       <c r="B19" s="0">
-        <v>313.2472</v>
+        <v>359.5971</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6986</v>
+        <v>0.1513</v>
       </c>
       <c r="B20" s="0">
-        <v>318.1004</v>
+        <v>346.6729</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.7495</v>
+        <v>0.104</v>
       </c>
       <c r="B21" s="0">
-        <v>321.7767</v>
+        <v>326.684</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7993</v>
+        <v>0.0841</v>
       </c>
       <c r="B22" s="0">
-        <v>329.0057</v>
+        <v>316.0985</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.8514</v>
+        <v>0.0654</v>
       </c>
       <c r="B23" s="0">
-        <v>333.8699</v>
+        <v>305.5124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9034</v>
+        <v>0.045</v>
       </c>
       <c r="B24" s="0">
-        <v>342.2896</v>
+        <v>290.2174</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9497</v>
+        <v>0.0345</v>
       </c>
       <c r="B25" s="0">
-        <v>345.9549</v>
+        <v>281.3927</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9798</v>
+        <v>0.0239</v>
       </c>
       <c r="B26" s="0">
-        <v>353.1373</v>
-      </c>
-    </row>
-    <row r="27"/>
+        <v>269.0355</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0146</v>
+      </c>
+      <c r="B27" s="0">
+        <v>245.4918</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0088</v>
+      </c>
+      <c r="B28" s="0">
+        <v>220.7686</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0064</v>
+      </c>
+      <c r="B29" s="0">
+        <v>188.3898</v>
+      </c>
+    </row>
+    <row r="30"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8219,7 +8131,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8240,205 +8152,293 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9788</v>
+        <v>0.9854</v>
       </c>
       <c r="B3" s="0">
-        <v>227.5054</v>
+        <v>151.9009</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9499</v>
+        <v>0.9725</v>
       </c>
       <c r="B4" s="0">
-        <v>227.4368</v>
+        <v>151.3198</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9013</v>
+        <v>0.9387</v>
       </c>
       <c r="B5" s="0">
-        <v>223.766</v>
+        <v>148.9848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8515</v>
+        <v>0.8768</v>
       </c>
       <c r="B6" s="0">
-        <v>220.0925</v>
+        <v>147.8438</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8006</v>
+        <v>0.8621</v>
       </c>
       <c r="B7" s="0">
-        <v>215.2311</v>
+        <v>148.4411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7509</v>
+        <v>0.8014</v>
       </c>
       <c r="B8" s="0">
-        <v>211.5576</v>
+        <v>147.2994</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7011</v>
+        <v>0.7845</v>
       </c>
       <c r="B9" s="0">
-        <v>207.8841</v>
+        <v>146.1319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6502</v>
+        <v>0.7307</v>
       </c>
       <c r="B10" s="0">
-        <v>206.5782</v>
+        <v>146.1636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6016</v>
+        <v>0.719</v>
       </c>
       <c r="B11" s="0">
-        <v>202.9074</v>
+        <v>145.5817</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5518</v>
+        <v>0.6682</v>
       </c>
       <c r="B12" s="0">
-        <v>200.4191</v>
+        <v>143.8455</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.502</v>
+        <v>0.6472</v>
       </c>
       <c r="B13" s="0">
-        <v>199.1159</v>
+        <v>144.4466</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4523</v>
+        <v>0.625</v>
       </c>
       <c r="B14" s="0">
-        <v>195.4424</v>
+        <v>142.6934</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4013</v>
+        <v>0.5759</v>
       </c>
       <c r="B15" s="0">
-        <v>194.1365</v>
+        <v>142.7223</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3574</v>
+        <v>0.5111</v>
       </c>
       <c r="B16" s="0">
-        <v>189.2915</v>
+        <v>141.583</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3053</v>
+        <v>0.4673</v>
       </c>
       <c r="B17" s="0">
-        <v>186.7977</v>
+        <v>138.6652</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2532</v>
+        <v>0.4252</v>
       </c>
       <c r="B18" s="0">
-        <v>183.1187</v>
+        <v>138.6899</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2034</v>
+        <v>0.3943</v>
       </c>
       <c r="B19" s="0">
-        <v>178.26</v>
+        <v>138.1194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1514</v>
+        <v>0.3581</v>
       </c>
       <c r="B20" s="0">
-        <v>175.7662</v>
+        <v>138.1408</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.097</v>
+        <v>0.3201</v>
       </c>
       <c r="B21" s="0">
-        <v>166.1558</v>
+        <v>136.9856</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0796</v>
+        <v>0.3014</v>
       </c>
       <c r="B22" s="0">
-        <v>162.5591</v>
+        <v>136.9967</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0657</v>
+        <v>0.2739</v>
       </c>
       <c r="B23" s="0">
-        <v>157.7855</v>
+        <v>135.2466</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0484</v>
+        <v>0.2512</v>
       </c>
       <c r="B24" s="0">
-        <v>154.1888</v>
+        <v>134.6713</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0334</v>
+        <v>0.2278</v>
       </c>
       <c r="B25" s="0">
-        <v>148.2272</v>
+        <v>135.2738</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0229</v>
+        <v>0.2068</v>
       </c>
       <c r="B26" s="0">
-        <v>139.9062</v>
+        <v>134.6974</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0149</v>
+        <v>0.1822</v>
       </c>
       <c r="B27" s="0">
-        <v>132.776</v>
-      </c>
-    </row>
-    <row r="28"/>
+        <v>134.1232</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.1548</v>
+      </c>
+      <c r="B28" s="0">
+        <v>132.9619</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.1326</v>
+      </c>
+      <c r="B29" s="0">
+        <v>132.9749</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.1086</v>
+      </c>
+      <c r="B30" s="0">
+        <v>131.8116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.09</v>
+      </c>
+      <c r="B31" s="0">
+        <v>131.2338</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0678</v>
+      </c>
+      <c r="B32" s="0">
+        <v>129.4807</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0514</v>
+      </c>
+      <c r="B33" s="0">
+        <v>125.958</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.038</v>
+      </c>
+      <c r="B34" s="0">
+        <v>124.7884</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0275</v>
+      </c>
+      <c r="B35" s="0">
+        <v>121.2622</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0199</v>
+      </c>
+      <c r="B36" s="0">
+        <v>118.9118</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0099</v>
+      </c>
+      <c r="B37" s="0">
+        <v>111.8529</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0058</v>
+      </c>
+      <c r="B38" s="0">
+        <v>100.6694</v>
+      </c>
+    </row>
+    <row r="39"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
